--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{700635F7-055D-5248-8441-D08AB744EDEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB691A4-C6A0-9141-A163-6C8EC4740CE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54800" yWindow="10260" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="3420" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Grouping</t>
   </si>
@@ -47,21 +47,32 @@
   <si>
     <t>NC_011083.1-1701563</t>
   </si>
+  <si>
+    <t>NC_011083.1-1474928</t>
+  </si>
+  <si>
+    <t>heidelberg-01-A</t>
+  </si>
+  <si>
+    <t>heidelberg-01-B</t>
+  </si>
+  <si>
+    <t>NC_011083.1-2751478</t>
+  </si>
+  <si>
+    <t>heidelberg-03</t>
+  </si>
+  <si>
+    <t>NC_011083.1-1305787</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+  <fonts count="23" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -533,124 +544,124 @@
   </borders>
   <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -658,7 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="115">
@@ -1101,28 +1111,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6"/>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{700635F7-055D-5248-8441-D08AB744EDEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39656C2-CF84-5549-B641-243C4696AC2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54800" yWindow="10260" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="3420" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Grouping</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>NC_011083.1-1701563</t>
+  </si>
+  <si>
+    <t>NC_011083.1-1474928</t>
+  </si>
+  <si>
+    <t>heidelberg-01-A</t>
+  </si>
+  <si>
+    <t>heidelberg-01-B</t>
+  </si>
+  <si>
+    <t>NC_011083.1-2751478</t>
+  </si>
+  <si>
+    <t>heidelberg-03</t>
+  </si>
+  <si>
+    <t>NC_011083.1-1305787</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1101,28 +1121,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6"/>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\bi\salmonella\vsnp\heidelberg-SL476\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39656C2-CF84-5549-B641-243C4696AC2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="3420" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="3420" windowWidth="30885" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Grouping</t>
   </si>
@@ -59,17 +55,11 @@
   <si>
     <t>NC_011083.1-2751478</t>
   </si>
-  <si>
-    <t>heidelberg-03</t>
-  </si>
-  <si>
-    <t>NC_011083.1-1305787</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,10 +777,10 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="103" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 3" xfId="102" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2" xfId="103"/>
+    <cellStyle name="Normal 3" xfId="102"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="104" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Note 2" xfId="104"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1095,20 +1085,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1148,163 +1138,159 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
     </row>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Grouping</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>NC_011083.1-2751478</t>
+  </si>
+  <si>
+    <t>NC_011083.1-602044</t>
+  </si>
+  <si>
+    <t>heidelberg-03</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1145,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6"/>
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7"/>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="3420" windowWidth="30885" windowHeight="16005"/>
+    <workbookView xWindow="2480" yWindow="3420" windowWidth="30890" windowHeight="16010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Grouping</t>
   </si>
@@ -55,21 +55,20 @@
   <si>
     <t>NC_011083.1-2751478</t>
   </si>
+  <si>
+    <t>heidelberg-03</t>
+  </si>
+  <si>
+    <t>NC_011083.1-602044</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+  <fonts count="23" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -541,124 +540,124 @@
   </borders>
   <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -666,7 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="115">
@@ -1089,16 +1087,16 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1138,159 +1136,163 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
     </row>
